--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_111.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,316 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:34.940000', '0:00:36.860000'), ('0:00:34.660000', '0:00:36.260000'), ('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:00:53.460000', '0:01:02.740000'), ('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:55.580000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'Bb/5', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(31.217551, 34.874693)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.537346, 8.504874)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['E', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['A', 'A', 'D', 'A'], ['A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:02:02.976598', '0:02:14.098957'), ('0:00:15.027029', '0:00:22.457415')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:34.290634', '0:00:43.926916'), ('0:00:28.450816', '0:00:40.095623')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.8, 48.28)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -798,405 +806,376 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08472222222222223</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.427993)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.440395, 3.280385)]</t>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>schubert-winterreise_89</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:05.020000', '0:00:08.800000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>isophonics_22</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08809523809523809</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6']]</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.07916666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A/b7']]</t>
+          <t>[['D', 'G', 'G'], ['G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.440395, 2.746326)]</t>
+          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
+          <t>[('0:00:31.248820', '0:00:38.911405'), ('0:01:00.180884', '0:01:08.841927')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:04.940612', '0:00:06.577619'), ('0:02:33.617981', '0:02:41.988775')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.84, 21.54)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(53.82, 62.52)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
